--- a/CVX_Kenya/Optimization/ Unknown.xlsx
+++ b/CVX_Kenya/Optimization/ Unknown.xlsx
@@ -14,129 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>Unnamed: 2_level_0</t>
+  </si>
+  <si>
+    <t>Unnamed: 3_level_0</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Max Unit</t>
+  </si>
+  <si>
+    <t>Max Inv</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>PROI</t>
+  </si>
+  <si>
+    <t>PPBT</t>
+  </si>
+  <si>
+    <t>Water Saving</t>
+  </si>
+  <si>
+    <t>Emission Saving</t>
+  </si>
+  <si>
+    <t>Land Saving</t>
+  </si>
+  <si>
+    <t>Import Saving</t>
+  </si>
+  <si>
+    <t>Capital Saving</t>
+  </si>
+  <si>
+    <t>Workforce Saving</t>
+  </si>
+  <si>
+    <t>Water Investment</t>
+  </si>
+  <si>
+    <t>Emission Investment</t>
+  </si>
+  <si>
+    <t>Land Investment</t>
+  </si>
+  <si>
+    <t>Import Investment</t>
+  </si>
+  <si>
+    <t>Workforce Investment</t>
+  </si>
+  <si>
+    <t>Capital Investment</t>
+  </si>
+  <si>
+    <t>Water Total Impact</t>
+  </si>
+  <si>
+    <t>Emission Total Impact</t>
+  </si>
+  <si>
+    <t>Land Total Impact</t>
+  </si>
+  <si>
+    <t>Import Total Impact</t>
+  </si>
+  <si>
+    <t>Workforce Total Impact</t>
+  </si>
+  <si>
+    <t>Capital Total Impact</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Functional Unit</t>
+  </si>
+  <si>
+    <t>M kSh/FU</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>M kSh</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>m3/FU</t>
+  </si>
+  <si>
+    <t>kton/FU</t>
+  </si>
   <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>Unnamed: 2_level_0</t>
-  </si>
-  <si>
-    <t>Unnamed: 3_level_0</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>Max Unit</t>
-  </si>
-  <si>
-    <t>Max Inv</t>
-  </si>
-  <si>
-    <t>Investment</t>
-  </si>
-  <si>
-    <t>PROI</t>
-  </si>
-  <si>
-    <t>PPBT</t>
-  </si>
-  <si>
-    <t>Water Saving</t>
-  </si>
-  <si>
-    <t>Emission Saving</t>
-  </si>
-  <si>
-    <t>Land Saving</t>
-  </si>
-  <si>
-    <t>Import Saving</t>
-  </si>
-  <si>
-    <t>Capital Saving</t>
-  </si>
-  <si>
-    <t>Workforce Saving</t>
-  </si>
-  <si>
-    <t>Water Investment</t>
-  </si>
-  <si>
-    <t>Emission Investment</t>
-  </si>
-  <si>
-    <t>Land Investment</t>
-  </si>
-  <si>
-    <t>Import Investment</t>
-  </si>
-  <si>
-    <t>Workforce Investment</t>
-  </si>
-  <si>
-    <t>Capital Investment</t>
-  </si>
-  <si>
-    <t>Water Total Impact</t>
-  </si>
-  <si>
-    <t>Emission Total Impact</t>
-  </si>
-  <si>
-    <t>Land Total Impact</t>
-  </si>
-  <si>
-    <t>Import Total Impact</t>
-  </si>
-  <si>
-    <t>Workforce Total Impact</t>
-  </si>
-  <si>
-    <t>Capital Total Impact</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
-    <t>Saving</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Functional Unit</t>
-  </si>
-  <si>
-    <t>M kSh/FU</t>
-  </si>
-  <si>
-    <t>FU</t>
-  </si>
-  <si>
-    <t>M kSh</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>m3/FU</t>
-  </si>
-  <si>
-    <t>kton/FU</t>
-  </si>
-  <si>
-    <t>Pulping_machines</t>
-  </si>
-  <si>
-    <t>_450_109</t>
-  </si>
-  <si>
-    <t>Pulping_machines_450_109</t>
-  </si>
-  <si>
-    <t>1 M Ksh investment</t>
   </si>
 </sst>
 </file>
@@ -494,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -583,189 +571,163 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:29">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="H4">
         <v>0.9599999198690057</v>
       </c>
       <c r="I4">
+        <v>1.862645149230957e-09</v>
+      </c>
+      <c r="J4">
+        <v>1.94025552573496e-09</v>
+      </c>
+      <c r="K4">
+        <v>515396032.5</v>
+      </c>
+      <c r="L4">
+        <v>3.733853979370906</v>
+      </c>
+      <c r="M4">
+        <v>-1.818989403545856e-12</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="O4">
+        <v>-4.656612873077393e-10</v>
+      </c>
+      <c r="P4">
+        <v>2.328306436538696e-10</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>3.733853979370906</v>
-      </c>
-      <c r="L4">
-        <v>-1.818989403545856e-12</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>-4.656612873077393e-10</v>
-      </c>
-      <c r="O4">
-        <v>2.328306436538696e-10</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.00425358081702143</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.001979796430532588</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.001174013130366802</v>
       </c>
-      <c r="T4">
-        <v>3630615.720207492</v>
-      </c>
       <c r="U4">
+        <v>0.2802074924111366</v>
+      </c>
+      <c r="V4">
         <v>0.05442387005314231</v>
       </c>
-      <c r="V4">
-        <v>3914809.607281496</v>
-      </c>
       <c r="W4">
+        <v>0.507281495956704</v>
+      </c>
+      <c r="X4">
         <v>37.34279337452608</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.001979796412342694</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.001174013130366802</v>
       </c>
-      <c r="Z4">
-        <v>3630615.720207487</v>
-      </c>
       <c r="AA4">
+        <v>0.2802074877545238</v>
+      </c>
+      <c r="AB4">
         <v>0.05442387005314231</v>
       </c>
-      <c r="AB4">
-        <v>3914809.607281498</v>
-      </c>
       <c r="AC4">
-        <v>515396032.5</v>
-      </c>
-      <c r="AD4">
-        <v>1.862645149230957e-09</v>
+        <v>0.5072814982850105</v>
       </c>
     </row>
   </sheetData>
